--- a/biology/Botanique/Buzet_(AOC)/Buzet_(AOC).xlsx
+++ b/biology/Botanique/Buzet_(AOC)/Buzet_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le buzet[1] est un vin français d'appellation d'origine contrôlée produit sur une partie du Lot-et-Garonne, autour de Buzet-sur-Baïse. Le cahier des charges a été homologué par décret du 11 octobre 2011[5].
+Le buzet est un vin français d'appellation d'origine contrôlée produit sur une partie du Lot-et-Garonne, autour de Buzet-sur-Baïse. Le cahier des charges a été homologué par décret du 11 octobre 2011.
 </t>
         </is>
       </c>
@@ -514,14 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moyen Âge
-Au Moyen Âge, un bourg s’est développé autour du château, sur l’éperon rocheux qui domine la vallée du ruisseau de Bénac et la vallée de la Baïse. Il y avait vraisemblablement plusieurs châtelains (des co-seigneurs) qui possédaient chacun un bâtiment : pour l’un il reste la tour dans le parc du château actuel et pour l’autre un château à l’origine de type « gascon » qui correspond au corps de logis situé entre les deux tours du XVe siècle.
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Moyen Âge, un bourg s’est développé autour du château, sur l’éperon rocheux qui domine la vallée du ruisseau de Bénac et la vallée de la Baïse. Il y avait vraisemblablement plusieurs châtelains (des co-seigneurs) qui possédaient chacun un bâtiment : pour l’un il reste la tour dans le parc du château actuel et pour l’autre un château à l’origine de type « gascon » qui correspond au corps de logis situé entre les deux tours du XVe siècle.
 À la fin du Moyen Âge, il n’y avait plus qu’un seul seigneur qui a modernisé le château en lui ajoutant les deux tours puis une autre tour-escalier sur la façade sud et au XVIIIe siècle deux ailes aujourd’hui disparues. Ce sont les familles Flamarens, Beaumont puis Noailles qui jusqu’en 1929 ont occupé le château de Buzet (actuellement propriété privée).
-Période moderne
-Vraisemblablement à partir de la fin des guerres de religion, le petit hameau de vignerons situé au bord du ruisseau de Bénac (ruisseau de la Paix) s’est développé. Le bourg de Lagravère est progressivement devenu plus peuplé que le bourg du haut qui fut abandonné entre 1830 et 1860. Les châtelains ont d’ailleurs racheté toutes les maisons qui restaient ainsi que l’ancien hôtel-de-ville et l’église paroissiale pour créer un superbe parc paysager.
-Période contemporaine
-Les Buzéquais ont donc développé Lagravère en y bâtissant un nouvel hôtel-de-ville (1838), un presbytère (1858) et une église (terminée en 1858 et consacrée en 1862). C’est donc un village rue aux maisons assez simples datant pour la plupart du XIXe siècle. Le creusement du canal latéral à la Garonne (inauguré en 1856) a quelque peu modifié le paysage de Buzet mais a surtout permis le développement des activités commerciales déjà importantes grâce à la Baïse.
-L’activité principale a toujours été la viticulture ce dont attestent les documents d’archives ainsi que la carte de Belleyme (fin du XVIIIe siècle). Buzet est désormais connu dans le monde entier grâce à la cave coopérative des Vignerons de Buzet qui a vu le jour dans les années cinquante grâce à la volonté d’une poignée de viticulteurs ayant voulu s’affranchir de la tutelle des négociants. C’est une réussite autant qualitative que commerciale, au-delà des espérances de ses créateurs. L'appellation Contrôlée fut obtenue en 1973.
 </t>
         </is>
       </c>
@@ -547,10 +559,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vraisemblablement à partir de la fin des guerres de religion, le petit hameau de vignerons situé au bord du ruisseau de Bénac (ruisseau de la Paix) s’est développé. Le bourg de Lagravère est progressivement devenu plus peuplé que le bourg du haut qui fut abandonné entre 1830 et 1860. Les châtelains ont d’ailleurs racheté toutes les maisons qui restaient ainsi que l’ancien hôtel-de-ville et l’église paroissiale pour créer un superbe parc paysager.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -573,67 +596,343 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Buzéquais ont donc développé Lagravère en y bâtissant un nouvel hôtel-de-ville (1838), un presbytère (1858) et une église (terminée en 1858 et consacrée en 1862). C’est donc un village rue aux maisons assez simples datant pour la plupart du XIXe siècle. Le creusement du canal latéral à la Garonne (inauguré en 1856) a quelque peu modifié le paysage de Buzet mais a surtout permis le développement des activités commerciales déjà importantes grâce à la Baïse.
+L’activité principale a toujours été la viticulture ce dont attestent les documents d’archives ainsi que la carte de Belleyme (fin du XVIIIe siècle). Buzet est désormais connu dans le monde entier grâce à la cave coopérative des Vignerons de Buzet qui a vu le jour dans les années cinquante grâce à la volonté d’une poignée de viticulteurs ayant voulu s’affranchir de la tutelle des négociants. C’est une réussite autant qualitative que commerciale, au-delà des espérances de ses créateurs. L'appellation Contrôlée fut obtenue en 1973.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La zone géographique se situe en Gascogne, dans le département de Lot-et-Garonne à proximité de la confluence des rivières de la Garonne et du Lot[6]. Délimité par la Garonne et les limites de la grande forêt des Landes, le vignoble s'étend actuellement sur un peu plus de 1900 hectares en production.
-Orographie
-Géologie
-Les sols développés sur les calcaires gris sont des sols bruns calciques peu épais et bien drainés. Les sols
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone géographique se situe en Gascogne, dans le département de Lot-et-Garonne à proximité de la confluence des rivières de la Garonne et du Lot. Délimité par la Garonne et les limites de la grande forêt des Landes, le vignoble s'étend actuellement sur un peu plus de 1900 hectares en production.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sols développés sur les calcaires gris sont des sols bruns calciques peu épais et bien drainés. Les sols
 développés sur les molasses aquitaniennes sont plus profonds et portent le nom local de "terrefort" avec
-une teneur en argile variable et une bonne alimentation en eau[7].
+une teneur en argile variable et une bonne alimentation en eau.
 Les sols développés sur les terrasses moyennes sont des sols podzolisés de type boulbènes. Lorsque la
 partie supérieure du sol a été décapée, l’horizon d’accumulation riche en argile et oxyde de fer apparaît et
 donne des sols particuliers de teinte rouge baptisés "rougets". Les sols développés sur les terrasses
 supérieures, sur les parties sommitales des coteaux, sont constitués de dépôts argilo-graveleux affleurant
 en mélange avec une fraction fine limoneuse d’origine éolienne.
-Climatologie
-Le terroir viticole du Pays d'Albret se situe dans la zone climatique océanique. Mais, il s'agit d'un climat océanique dégradé avec une amplitude thermique annuelle plus marquée et des précipitations moins abondantes que sur le littoral aquitain. De plus, à la différence du littoral, le printemps (surtout à sa fin) y est plus arrosé que l'hiver. Les vents dominants sont d'ouest sans être exclusifs[8].
-Source : Infoclimat[9]
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Buzet_(AOC)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Buzet_(AOC)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terroir viticole du Pays d'Albret se situe dans la zone climatique océanique. Mais, il s'agit d'un climat océanique dégradé avec une amplitude thermique annuelle plus marquée et des précipitations moins abondantes que sur le littoral aquitain. De plus, à la différence du littoral, le printemps (surtout à sa fin) y est plus arrosé que l'hiver. Les vents dominants sont d'ouest sans être exclusifs.
+Source : Infoclimat
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Présentation
-Le vignoble s'étend sur 27 communes de : Ambrus, Anzex, Barbaste, Bruch, Buzet-sur-Baïse, Calignac, Caubeyres, Damazan, Espiens, Feugarolles, Lavardac, Leyritz-Moncassin, Moncaut, Montagnac-sur-Auvignon, Montesquieu, Mongaillard, Nérac, Pompiey, Puch-d'Agenais, Razimet, Sainte-Colombe-en-Bruilhois, Saint-Léon, Saint-Pierre-de-Buzet, Sérignac-sur-Garonne, Vianne, Villefranche-du-Queyran et Xaintrailles[10].
-Encépagement
-Les cépages utilisés sont :
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur 27 communes de : Ambrus, Anzex, Barbaste, Bruch, Buzet-sur-Baïse, Calignac, Caubeyres, Damazan, Espiens, Feugarolles, Lavardac, Leyritz-Moncassin, Moncaut, Montagnac-sur-Auvignon, Montesquieu, Mongaillard, Nérac, Pompiey, Puch-d'Agenais, Razimet, Sainte-Colombe-en-Bruilhois, Saint-Léon, Saint-Pierre-de-Buzet, Sérignac-sur-Garonne, Vianne, Villefranche-du-Queyran et Xaintrailles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les cépages utilisés sont :
 cépages blancs : muscadelle, sauvignon et sémillon
-cépages rouges : cabernet-franc, cabernet sauvignon, côt et merlot.
-Méthodes culturales
-La densité minimale des vignes à la plantation de 4 000 pieds par hectare. L’écartement entre les rangs ne peut être supérieur à 2,50 mètres. Chaque pied dispose d’une superficie maximale de 2,50 mètres carrés. Afin de préserver les caractéristiques du milieu physique et biologique qui constitue un élément fondamental du terroir, les herbicides de pré-levée sont localisés sous le rang et appliqués avec des matériels assurant une localisation précise. Le rendement (visé à l’article D. 645-7 du code rural et de la pêche maritime) est fixé à 55 hectolitres par hectare.
-Terroir et vins
-Structure des exploitations
-Type de vins et gastronomie
-Commercialisation
+cépages rouges : cabernet-franc, cabernet sauvignon, côt et merlot.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La densité minimale des vignes à la plantation de 4 000 pieds par hectare. L’écartement entre les rangs ne peut être supérieur à 2,50 mètres. Chaque pied dispose d’une superficie maximale de 2,50 mètres carrés. Afin de préserver les caractéristiques du milieu physique et biologique qui constitue un élément fondamental du terroir, les herbicides de pré-levée sont localisés sous le rang et appliqués avec des matériels assurant une localisation précise. Le rendement (visé à l’article D. 645-7 du code rural et de la pêche maritime) est fixé à 55 hectolitres par hectare.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buzet_(AOC)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			AOC Buzet en supermarché.
 			AOC Buzet sur un linéaire.
 Il est possible de trouver du vin d'AOC Buzet dans tous les circuits de distribution. La coopérative des Vignerons de Buzet représente 94 % des ventes de l'AOC et distribue la majorité de ses volumes sur le marché national.</t>
